--- a/analysis/result/ttt_desc_and_corrs.xlsx
+++ b/analysis/result/ttt_desc_and_corrs.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryunosukeoka/Library/CloudStorage/Dropbox/比喩関連/執筆支援/執筆時のプランニング/github/triple_task_technique_online/analysis/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7039A8F7-E5F9-DA43-B065-6262771C2226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94213E7-471D-2A49-AA5E-6D82068A0EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{FCD8FB44-A8FB-4C48-92CE-F732D597492D}"/>
   </bookViews>
   <sheets>
-    <sheet name="記述統計量と相関係数 (N=59; 1名は欠損地で除外)" sheetId="10" r:id="rId1"/>
+    <sheet name="記述統計量と相関係数 (N=59; 1名は欠損値で除外)" sheetId="10" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -333,7 +333,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode=".00"/>
+    <numFmt numFmtId="176" formatCode=".00"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -407,12 +407,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -426,26 +423,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,7 +781,7 @@
   <dimension ref="A1:AR25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -833,1828 +830,1840 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
     </row>
     <row r="2" spans="1:44" ht="21" thickBot="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="2"/>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
         <v>2</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11">
         <v>3</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11">
         <v>4</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11">
         <v>5</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1">
+      <c r="O3" s="11"/>
+      <c r="P3" s="11">
         <v>6</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11">
         <v>7</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1">
+      <c r="S3" s="11"/>
+      <c r="T3" s="11">
         <v>8</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1">
+      <c r="U3" s="11"/>
+      <c r="V3" s="11">
         <v>9</v>
       </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1">
+      <c r="W3" s="11"/>
+      <c r="X3" s="11">
         <v>10</v>
       </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1">
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11">
         <v>11</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1">
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11">
         <v>12</v>
       </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1">
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11">
         <v>13</v>
       </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1">
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11">
         <v>14</v>
       </c>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1">
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11">
         <v>15</v>
       </c>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1">
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11">
         <v>16</v>
       </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1">
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11">
         <v>17</v>
       </c>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1">
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11">
         <v>18</v>
       </c>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1">
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11">
         <v>19</v>
       </c>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="3"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="2"/>
     </row>
     <row r="4" spans="1:44">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>42.58</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>7.91</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="2"/>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>4.0199999999999996</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>1.2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>3.47</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>1.76</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
         <v>-0.51300000000000001</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>5.54</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>0.99</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7">
+      <c r="I7" s="2"/>
+      <c r="J7" s="5">
         <v>0.376</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>438.05</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>186.85</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
         <v>-0.14099999999999999</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7">
+      <c r="I8" s="2"/>
+      <c r="J8" s="5">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7">
+      <c r="K8" s="2"/>
+      <c r="L8" s="5">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>867155.81</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>249984.56</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>0.27500000000000002</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
         <v>0.223</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7">
+      <c r="I9" s="2"/>
+      <c r="J9" s="5">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7">
+      <c r="K9" s="2"/>
+      <c r="L9" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7">
+      <c r="M9" s="2"/>
+      <c r="N9" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="3"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>23817.439999999999</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>37637.94</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
         <v>-5.5E-2</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7">
+      <c r="I10" s="2"/>
+      <c r="J10" s="5">
         <v>0.11600000000000001</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7">
+      <c r="K10" s="2"/>
+      <c r="L10" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7">
+      <c r="M10" s="2"/>
+      <c r="N10" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="7">
+      <c r="O10" s="2"/>
+      <c r="P10" s="5">
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="3"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>4</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>0.74</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>-0.126</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7">
+      <c r="I11" s="2"/>
+      <c r="J11" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7">
+      <c r="K11" s="2"/>
+      <c r="L11" s="5">
         <v>0.129</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7">
+      <c r="M11" s="2"/>
+      <c r="N11" s="5">
         <v>-2.7E-2</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="7">
+      <c r="O11" s="2"/>
+      <c r="P11" s="5">
         <v>0.214</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="7">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="3"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>3.8</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>0.95</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>-0.14899999999999999</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
         <v>-0.13300000000000001</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7">
+      <c r="I12" s="2"/>
+      <c r="J12" s="5">
         <v>0.24199999999999999</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7">
+      <c r="K12" s="2"/>
+      <c r="L12" s="5">
         <v>0.14799999999999999</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7">
+      <c r="M12" s="2"/>
+      <c r="N12" s="5">
         <v>-0.193</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="7">
+      <c r="O12" s="2"/>
+      <c r="P12" s="5">
         <v>0.22</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="7">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="5">
         <v>-0.14799999999999999</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="7">
+      <c r="S12" s="2"/>
+      <c r="T12" s="5">
         <v>0.68</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="U12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="3"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>4.62</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>0.64</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>-0.14599999999999999</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7">
+      <c r="I13" s="2"/>
+      <c r="J13" s="5">
         <v>-1.4E-2</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7">
+      <c r="K13" s="2"/>
+      <c r="L13" s="5">
         <v>-0.19800000000000001</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7">
+      <c r="M13" s="2"/>
+      <c r="N13" s="5">
         <v>0.13</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7">
+      <c r="O13" s="2"/>
+      <c r="P13" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="7">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="5">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="7">
+      <c r="S13" s="2"/>
+      <c r="T13" s="5">
         <v>0.48399999999999999</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="5">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="3"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>5.43</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>2.17</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>0.17299999999999999</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
         <v>0.14899999999999999</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7">
+      <c r="I14" s="2"/>
+      <c r="J14" s="5">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7">
+      <c r="K14" s="2"/>
+      <c r="L14" s="5">
         <v>0.26700000000000002</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="5">
         <v>0</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="7">
+      <c r="O14" s="2"/>
+      <c r="P14" s="5">
         <v>0.49</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="5">
         <v>-0.23499999999999999</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="7">
+      <c r="S14" s="2"/>
+      <c r="T14" s="5">
         <v>0.109</v>
       </c>
-      <c r="U14" s="6"/>
-      <c r="V14" s="7">
+      <c r="U14" s="2"/>
+      <c r="V14" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="7">
+      <c r="W14" s="2"/>
+      <c r="X14" s="5">
         <v>0.09</v>
       </c>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="3"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>0.5</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>0.85</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7">
+      <c r="I15" s="2"/>
+      <c r="J15" s="5">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7">
+      <c r="K15" s="2"/>
+      <c r="L15" s="5">
         <v>0.03</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7">
+      <c r="M15" s="2"/>
+      <c r="N15" s="5">
         <v>-0.121</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="7">
+      <c r="O15" s="2"/>
+      <c r="P15" s="5">
         <v>0.25900000000000001</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="5">
         <v>0.04</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="7">
+      <c r="S15" s="2"/>
+      <c r="T15" s="5">
         <v>0.28199999999999997</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="U15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="5">
         <v>0.313</v>
       </c>
-      <c r="W15" s="6" t="s">
+      <c r="W15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="7">
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="3"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
     </row>
     <row r="16" spans="1:44">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>4.97</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>2.48</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7">
+      <c r="I16" s="2"/>
+      <c r="J16" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7">
+      <c r="K16" s="2"/>
+      <c r="L16" s="5">
         <v>0.19700000000000001</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="7">
+      <c r="M16" s="2"/>
+      <c r="N16" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="7">
+      <c r="O16" s="2"/>
+      <c r="P16" s="5">
         <v>0.42399999999999999</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="5">
         <v>0.17399999999999999</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="7">
+      <c r="S16" s="2"/>
+      <c r="T16" s="5">
         <v>0.27800000000000002</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="U16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="5">
         <v>0.186</v>
       </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="7">
+      <c r="W16" s="2"/>
+      <c r="X16" s="5">
         <v>0.248</v>
       </c>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="7">
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="5">
         <v>0.55800000000000005</v>
       </c>
-      <c r="AA16" s="6" t="s">
+      <c r="AA16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="5">
         <v>0.26200000000000001</v>
       </c>
-      <c r="AC16" s="6" t="s">
+      <c r="AC16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="3"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
     </row>
     <row r="17" spans="1:44">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>1.05</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>1.17</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>0.158</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
         <v>-0.188</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7">
+      <c r="I17" s="2"/>
+      <c r="J17" s="5">
         <v>0.14899999999999999</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7">
+      <c r="K17" s="2"/>
+      <c r="L17" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="7">
+      <c r="M17" s="2"/>
+      <c r="N17" s="5">
         <v>5.5E-2</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="7">
+      <c r="O17" s="2"/>
+      <c r="P17" s="5">
         <v>0.189</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="7">
+      <c r="Q17" s="2"/>
+      <c r="R17" s="5">
         <v>-0.26100000000000001</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="5">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="U17" s="6"/>
-      <c r="V17" s="7">
+      <c r="U17" s="2"/>
+      <c r="V17" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="W17" s="6"/>
-      <c r="X17" s="7">
+      <c r="W17" s="2"/>
+      <c r="X17" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="7">
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="5">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AA17" s="6" t="s">
+      <c r="AA17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AB17" s="5">
         <v>0.18</v>
       </c>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="7">
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="5">
         <v>-0.114</v>
       </c>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="3"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
     </row>
     <row r="18" spans="1:44">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>3.2</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>2.23</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5">
         <v>0.111</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7">
+      <c r="I18" s="2"/>
+      <c r="J18" s="5">
         <v>-0.10199999999999999</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7">
+      <c r="K18" s="2"/>
+      <c r="L18" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7">
+      <c r="M18" s="2"/>
+      <c r="N18" s="5">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="7">
+      <c r="O18" s="2"/>
+      <c r="P18" s="5">
         <v>0.379</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="5">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="7">
+      <c r="S18" s="2"/>
+      <c r="T18" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="U18" s="6"/>
-      <c r="V18" s="7">
+      <c r="U18" s="2"/>
+      <c r="V18" s="5">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="7">
+      <c r="W18" s="2"/>
+      <c r="X18" s="5">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="7">
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="5">
         <v>0.49299999999999999</v>
       </c>
-      <c r="AA18" s="6" t="s">
+      <c r="AA18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="7">
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="5">
         <v>0.57899999999999996</v>
       </c>
-      <c r="AE18" s="6" t="s">
+      <c r="AE18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AF18" s="7">
+      <c r="AF18" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="3"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>2.72</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>0.17599999999999999</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7">
+      <c r="I19" s="2"/>
+      <c r="J19" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7">
+      <c r="K19" s="2"/>
+      <c r="L19" s="5">
         <v>0.20699999999999999</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="7">
+      <c r="M19" s="2"/>
+      <c r="N19" s="5">
         <v>-0.17699999999999999</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="7">
+      <c r="O19" s="2"/>
+      <c r="P19" s="5">
         <v>0.36</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="5">
         <v>-0.13200000000000001</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="7">
+      <c r="S19" s="2"/>
+      <c r="T19" s="5">
         <v>0.17299999999999999</v>
       </c>
-      <c r="U19" s="6"/>
-      <c r="V19" s="7">
+      <c r="U19" s="2"/>
+      <c r="V19" s="5">
         <v>0.14299999999999999</v>
       </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="7">
+      <c r="W19" s="2"/>
+      <c r="X19" s="5">
         <v>0.16400000000000001</v>
       </c>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="7">
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="5">
         <v>0.24099999999999999</v>
       </c>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="7">
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="5">
         <v>0.36</v>
       </c>
-      <c r="AC19" s="6" t="s">
+      <c r="AC19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AD19" s="5">
         <v>0.214</v>
       </c>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="7">
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="5">
         <v>0.17199999999999999</v>
       </c>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="7">
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="5">
         <v>-0.3</v>
       </c>
-      <c r="AI19" s="6" t="s">
+      <c r="AI19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="3"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
     </row>
     <row r="20" spans="1:44">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>2.48</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>2.16</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>0.11700000000000001</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7">
+      <c r="I20" s="2"/>
+      <c r="J20" s="5">
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7">
+      <c r="K20" s="2"/>
+      <c r="L20" s="5">
         <v>-0.28699999999999998</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="5">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="7">
+      <c r="O20" s="2"/>
+      <c r="P20" s="5">
         <v>0.505</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="7">
+      <c r="S20" s="2"/>
+      <c r="T20" s="5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="U20" s="6"/>
-      <c r="V20" s="7">
+      <c r="U20" s="2"/>
+      <c r="V20" s="5">
         <v>0.16800000000000001</v>
       </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="7">
+      <c r="W20" s="2"/>
+      <c r="X20" s="5">
         <v>-0.105</v>
       </c>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="7">
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="5">
         <v>-0.40300000000000002</v>
       </c>
-      <c r="AA20" s="6" t="s">
+      <c r="AA20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AB20" s="5">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="7">
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="5">
         <v>-0.17</v>
       </c>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="7">
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="5">
         <v>-0.155</v>
       </c>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="7">
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="5">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="7">
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="5">
         <v>5.5E-2</v>
       </c>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="3"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>2.54</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
         <v>0.221</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7">
+      <c r="I21" s="2"/>
+      <c r="J21" s="5">
         <v>-0.20799999999999999</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7">
+      <c r="K21" s="2"/>
+      <c r="L21" s="5">
         <v>-0.25800000000000001</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="5">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="7">
+      <c r="O21" s="2"/>
+      <c r="P21" s="5">
         <v>0.44900000000000001</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="5">
         <v>-0.14899999999999999</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="7">
+      <c r="S21" s="2"/>
+      <c r="T21" s="5">
         <v>-7.2999999999999995E-2</v>
       </c>
-      <c r="U21" s="6"/>
-      <c r="V21" s="7">
+      <c r="U21" s="2"/>
+      <c r="V21" s="5">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="7">
+      <c r="W21" s="2"/>
+      <c r="X21" s="5">
         <v>-0.189</v>
       </c>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="7">
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="5">
         <v>-0.18</v>
       </c>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="7">
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="5">
         <v>-4.8000000000000001E-2</v>
       </c>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="7">
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="5">
         <v>-0.48499999999999999</v>
       </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AE21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AF21" s="7">
+      <c r="AF21" s="5">
         <v>-0.16</v>
       </c>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="7">
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="5">
         <v>-0.19400000000000001</v>
       </c>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="7">
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="7">
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="5">
         <v>0.72</v>
       </c>
-      <c r="AM21" s="6" t="s">
+      <c r="AM21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="3"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>1.72</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>-1.6E-2</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5">
         <v>2.4E-2</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7">
+      <c r="I22" s="2"/>
+      <c r="J22" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="7">
+      <c r="K22" s="2"/>
+      <c r="L22" s="5">
         <v>-0.26100000000000001</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="5">
         <v>0.17799999999999999</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="7">
+      <c r="O22" s="2"/>
+      <c r="P22" s="5">
         <v>0.25800000000000001</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="5">
         <v>-4.1000000000000002E-2</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="7">
+      <c r="S22" s="2"/>
+      <c r="T22" s="5">
         <v>-1.4E-2</v>
       </c>
-      <c r="U22" s="6"/>
-      <c r="V22" s="7">
+      <c r="U22" s="2"/>
+      <c r="V22" s="5">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="7">
+      <c r="W22" s="2"/>
+      <c r="X22" s="5">
         <v>-0.114</v>
       </c>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="7">
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="5">
         <v>-0.156</v>
       </c>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="7">
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="5">
         <v>-0.159</v>
       </c>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="7">
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="5">
         <v>-0.33700000000000002</v>
       </c>
-      <c r="AE22" s="6" t="s">
+      <c r="AE22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AF22" s="7">
+      <c r="AF22" s="5">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="7">
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="5">
         <v>-0.15</v>
       </c>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="7">
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="5">
         <v>-0.45300000000000001</v>
       </c>
-      <c r="AK22" s="6" t="s">
+      <c r="AK22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AL22" s="7">
+      <c r="AL22" s="5">
         <v>0.497</v>
       </c>
-      <c r="AM22" s="6" t="s">
+      <c r="AM22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AN22" s="7">
+      <c r="AN22" s="5">
         <v>0.63400000000000001</v>
       </c>
-      <c r="AO22" s="6" t="s">
+      <c r="AO22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="3"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
     </row>
     <row r="23" spans="1:44" ht="21" thickBot="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>512.42999999999995</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>193.56</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="8">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="10">
+      <c r="I23" s="3"/>
+      <c r="J23" s="8">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="10">
+      <c r="K23" s="3"/>
+      <c r="L23" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="10">
+      <c r="M23" s="3"/>
+      <c r="N23" s="8">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="10">
+      <c r="O23" s="3"/>
+      <c r="P23" s="8">
         <v>0.52900000000000003</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="8">
         <v>-0.316</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="8">
         <v>0.28100000000000003</v>
       </c>
-      <c r="U23" s="4" t="s">
+      <c r="U23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V23" s="10">
+      <c r="V23" s="8">
         <v>0.28699999999999998</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="W23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X23" s="10">
+      <c r="X23" s="8">
         <v>0.224</v>
       </c>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="10">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="8">
         <v>0.47799999999999998</v>
       </c>
-      <c r="AA23" s="4" t="s">
+      <c r="AA23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB23" s="10">
+      <c r="AB23" s="8">
         <v>0.25700000000000001</v>
       </c>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="10">
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="8">
         <v>0.373</v>
       </c>
-      <c r="AE23" s="4" t="s">
+      <c r="AE23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AF23" s="10">
+      <c r="AF23" s="8">
         <v>0.185</v>
       </c>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="10">
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="8">
         <v>0.374</v>
       </c>
-      <c r="AI23" s="4" t="s">
+      <c r="AI23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AJ23" s="10">
+      <c r="AJ23" s="8">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="10">
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="10">
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="8">
         <v>0.115</v>
       </c>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="10">
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="8">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="2"/>
     </row>
     <row r="24" spans="1:44">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:C45">
     <sortCondition ref="C3:C45"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="AN3:AO3"/>
     <mergeCell ref="AP3:AQ3"/>
     <mergeCell ref="AB3:AC3"/>
@@ -2663,18 +2672,6 @@
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
